--- a/test/templates/test-cols.xlsx
+++ b/test/templates/test-cols.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Systems\xlsx-template\test\templates\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E37E0A50-F01C-4126-AB1D-1092E99DA302}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="17560" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="21600" windowHeight="11385" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Plan" sheetId="1" r:id="rId1"/>
@@ -24,20 +30,20 @@
     <t>Columns test</t>
   </si>
   <si>
-    <t>${emptyCols}</t>
+    <t>{emptyCols}</t>
   </si>
   <si>
-    <t>${multiCols}</t>
+    <t>{multiCols}</t>
   </si>
   <si>
-    <t>${singleCols}</t>
+    <t>{singleCols}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4">
     <font>
       <sz val="10"/>
       <color theme="1"/>
@@ -113,6 +119,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -437,29 +451,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:D6"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="1" width="4.5" customWidth="1"/>
-    <col min="2" max="2" width="23.83203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="4.42578125" customWidth="1"/>
+    <col min="2" max="2" width="23.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" ht="20" thickBot="1">
+    <row r="2" spans="2:4" ht="20.25" thickBot="1">
       <c r="B2" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
     </row>
-    <row r="3" spans="2:4" ht="14" thickTop="1"/>
+    <row r="3" spans="2:4" ht="13.5" thickTop="1"/>
     <row r="4" spans="2:4">
       <c r="B4" s="1" t="s">
         <v>1</v>
